--- a/ccd_full_analysis_refined_with_plots/Flexural_VIF_final.xlsx
+++ b/ccd_full_analysis_refined_with_plots/Flexural_VIF_final.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Duration (min)</t>
+          <t>Temperature (°C)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.79288747911272</v>
+        <v>22.51764705882353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Temperature (°C)*Duration (min)</t>
+          <t>Duration (min)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.09477798073459</v>
+        <v>53.55330882352941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Temperature (°C)^2</t>
+          <t>Temperature (°C)*Duration (min)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.359129779496088</v>
+        <v>23.02389705882356</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.74525736378228</v>
+        <v>48.28235294117639</v>
       </c>
     </row>
   </sheetData>
